--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd248</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H2">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I2">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J2">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1961845</v>
+        <v>6.658597</v>
       </c>
       <c r="N2">
-        <v>2.392369</v>
+        <v>13.317194</v>
       </c>
       <c r="O2">
-        <v>0.02404047019001854</v>
+        <v>0.103945988087918</v>
       </c>
       <c r="P2">
-        <v>0.01736464267462396</v>
+        <v>0.08162724187161399</v>
       </c>
       <c r="Q2">
-        <v>66.09346699412626</v>
+        <v>317.9962050043845</v>
       </c>
       <c r="R2">
-        <v>264.373867976505</v>
+        <v>1271.984820017538</v>
       </c>
       <c r="S2">
-        <v>0.01490952674282175</v>
+        <v>0.0969461378346116</v>
       </c>
       <c r="T2">
-        <v>0.009102970539194129</v>
+        <v>0.07448891910056442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H3">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I3">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J3">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.78661766666667</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N3">
         <v>104.359853</v>
       </c>
       <c r="O3">
-        <v>0.6991284747687939</v>
+        <v>0.54304673275741</v>
       </c>
       <c r="P3">
-        <v>0.7574799526834212</v>
+        <v>0.6396698105109139</v>
       </c>
       <c r="Q3">
-        <v>1922.084901274948</v>
+        <v>1661.312796515313</v>
       </c>
       <c r="R3">
-        <v>11532.50940764969</v>
+        <v>9967.876779091879</v>
       </c>
       <c r="S3">
-        <v>0.4335886365301358</v>
+        <v>0.5064773001148142</v>
       </c>
       <c r="T3">
-        <v>0.3970895239545531</v>
+        <v>0.5837305251739813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H4">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I4">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J4">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07777066666666667</v>
+        <v>0.1155526666666667</v>
       </c>
       <c r="N4">
-        <v>0.233312</v>
+        <v>0.346658</v>
       </c>
       <c r="O4">
-        <v>0.00156300586879187</v>
+        <v>0.001803868910051246</v>
       </c>
       <c r="P4">
-        <v>0.001693459291481316</v>
+        <v>0.002124827228072968</v>
       </c>
       <c r="Q4">
-        <v>4.29710716904</v>
+        <v>5.518476261311</v>
       </c>
       <c r="R4">
-        <v>25.78264301424</v>
+        <v>33.110857567866</v>
       </c>
       <c r="S4">
-        <v>0.0009693519975168902</v>
+        <v>0.00168239416649237</v>
       </c>
       <c r="T4">
-        <v>0.0008877527933360032</v>
+        <v>0.001939010554142521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H5">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I5">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J5">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.302739</v>
+        <v>22.3696805</v>
       </c>
       <c r="N5">
-        <v>20.605478</v>
+        <v>44.739361</v>
       </c>
       <c r="O5">
-        <v>0.2070606079622678</v>
+        <v>0.3492084808231422</v>
       </c>
       <c r="P5">
-        <v>0.1495616949600271</v>
+        <v>0.2742282376849398</v>
       </c>
       <c r="Q5">
-        <v>569.2631362850775</v>
+        <v>1068.314166807299</v>
       </c>
       <c r="R5">
-        <v>2277.05254514031</v>
+        <v>4273.256667229197</v>
       </c>
       <c r="S5">
-        <v>0.1284157775366698</v>
+        <v>0.3256923536698832</v>
       </c>
       <c r="T5">
-        <v>0.07840389972450436</v>
+        <v>0.2502469095321392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H6">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I6">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J6">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.325815666666667</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N6">
-        <v>9.977447000000002</v>
+        <v>0.072434</v>
       </c>
       <c r="O6">
-        <v>0.066841003534151</v>
+        <v>0.0003769174247548072</v>
       </c>
       <c r="P6">
-        <v>0.0724197654960413</v>
+        <v>0.0004439814902244788</v>
       </c>
       <c r="Q6">
-        <v>183.7631970598025</v>
+        <v>1.153082604503</v>
       </c>
       <c r="R6">
-        <v>1102.579182358815</v>
+        <v>6.918495627017999</v>
       </c>
       <c r="S6">
-        <v>0.04145375368420358</v>
+        <v>0.0003515353433519732</v>
       </c>
       <c r="T6">
-        <v>0.0379642129192323</v>
+        <v>0.0004051551975686682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H7">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I7">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J7">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06798999999999999</v>
+        <v>0.103647</v>
       </c>
       <c r="N7">
-        <v>0.20397</v>
+        <v>0.310941</v>
       </c>
       <c r="O7">
-        <v>0.001366437675976708</v>
+        <v>0.0016180119967237</v>
       </c>
       <c r="P7">
-        <v>0.001480484894405106</v>
+        <v>0.001905901214234885</v>
       </c>
       <c r="Q7">
-        <v>3.756690394275</v>
+        <v>4.9498944988095</v>
       </c>
       <c r="R7">
-        <v>22.54014236565</v>
+        <v>29.699366992857</v>
       </c>
       <c r="S7">
-        <v>0.0008474434531165138</v>
+        <v>0.001509053085528977</v>
       </c>
       <c r="T7">
-        <v>0.0007761064036858137</v>
+        <v>0.001739229675113887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J8">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1961845</v>
+        <v>6.658597</v>
       </c>
       <c r="N8">
-        <v>2.392369</v>
+        <v>13.317194</v>
       </c>
       <c r="O8">
-        <v>0.02404047019001854</v>
+        <v>0.103945988087918</v>
       </c>
       <c r="P8">
-        <v>0.01736464267462396</v>
+        <v>0.08162724187161399</v>
       </c>
       <c r="Q8">
-        <v>1.007443731211167</v>
+        <v>5.607965833290334</v>
       </c>
       <c r="R8">
-        <v>6.044662387267</v>
+        <v>33.647794999742</v>
       </c>
       <c r="S8">
-        <v>0.0002272616331916116</v>
+        <v>0.001709676468115275</v>
       </c>
       <c r="T8">
-        <v>0.0002081309474791071</v>
+        <v>0.001970454238293189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J9">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.78661766666667</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N9">
         <v>104.359853</v>
       </c>
       <c r="O9">
-        <v>0.6991284747687939</v>
+        <v>0.54304673275741</v>
       </c>
       <c r="P9">
-        <v>0.7574799526834212</v>
+        <v>0.6396698105109139</v>
       </c>
       <c r="Q9">
         <v>29.29778800705322</v>
@@ -1013,10 +1013,10 @@
         <v>263.680092063479</v>
       </c>
       <c r="S9">
-        <v>0.006609067032835519</v>
+        <v>0.008931890851785007</v>
       </c>
       <c r="T9">
-        <v>0.009079082317013111</v>
+        <v>0.01544141465923709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>2.526643</v>
       </c>
       <c r="I10">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J10">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.07777066666666667</v>
+        <v>0.1155526666666667</v>
       </c>
       <c r="N10">
-        <v>0.233312</v>
+        <v>0.346658</v>
       </c>
       <c r="O10">
-        <v>0.00156300586879187</v>
+        <v>0.001803868910051246</v>
       </c>
       <c r="P10">
-        <v>0.001693459291481316</v>
+        <v>0.002124827228072968</v>
       </c>
       <c r="Q10">
-        <v>0.06549957017955556</v>
+        <v>0.09732011212155556</v>
       </c>
       <c r="R10">
-        <v>0.589496131616</v>
+        <v>0.875881009094</v>
       </c>
       <c r="S10">
-        <v>1.477555403958762E-05</v>
+        <v>2.966956477888185E-05</v>
       </c>
       <c r="T10">
-        <v>2.029764121598526E-05</v>
+        <v>5.129261654806864E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.526643</v>
       </c>
       <c r="I11">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J11">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.302739</v>
+        <v>22.3696805</v>
       </c>
       <c r="N11">
-        <v>20.605478</v>
+        <v>44.739361</v>
       </c>
       <c r="O11">
-        <v>0.2070606079622678</v>
+        <v>0.3492084808231422</v>
       </c>
       <c r="P11">
-        <v>0.1495616949600271</v>
+        <v>0.2742282376849398</v>
       </c>
       <c r="Q11">
-        <v>8.677114458392332</v>
+        <v>18.84006554918717</v>
       </c>
       <c r="R11">
-        <v>52.062686750354</v>
+        <v>113.040393295123</v>
       </c>
       <c r="S11">
-        <v>0.001957404807943015</v>
+        <v>0.005743689901957896</v>
       </c>
       <c r="T11">
-        <v>0.001792632181490354</v>
+        <v>0.006619777672457053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>2.526643</v>
       </c>
       <c r="I12">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J12">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.325815666666667</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N12">
-        <v>9.977447000000002</v>
+        <v>0.072434</v>
       </c>
       <c r="O12">
-        <v>0.066841003534151</v>
+        <v>0.0003769174247548072</v>
       </c>
       <c r="P12">
-        <v>0.0724197654960413</v>
+        <v>0.0004439814902244788</v>
       </c>
       <c r="Q12">
-        <v>2.801049624491223</v>
+        <v>0.02033498434022222</v>
       </c>
       <c r="R12">
-        <v>25.20944662042101</v>
+        <v>0.183014859062</v>
       </c>
       <c r="S12">
-        <v>0.0006318676592957989</v>
+        <v>6.199439375965729E-06</v>
       </c>
       <c r="T12">
-        <v>0.000868016387744773</v>
+        <v>1.071756424788352E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>2.526643</v>
       </c>
       <c r="I13">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J13">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06798999999999999</v>
+        <v>0.103647</v>
       </c>
       <c r="N13">
-        <v>0.20397</v>
+        <v>0.310941</v>
       </c>
       <c r="O13">
-        <v>0.001366437675976708</v>
+        <v>0.0016180119967237</v>
       </c>
       <c r="P13">
-        <v>0.001480484894405106</v>
+        <v>0.001905901214234885</v>
       </c>
       <c r="Q13">
-        <v>0.05726215252333332</v>
+        <v>0.087292989007</v>
       </c>
       <c r="R13">
-        <v>0.51535937271</v>
+        <v>0.7856369010630001</v>
       </c>
       <c r="S13">
-        <v>1.29173371170565E-05</v>
+        <v>2.661263880224977E-05</v>
       </c>
       <c r="T13">
-        <v>1.774495044757455E-05</v>
+        <v>4.600781600907238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H14">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I14">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J14">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1961845</v>
+        <v>6.658597</v>
       </c>
       <c r="N14">
-        <v>2.392369</v>
+        <v>13.317194</v>
       </c>
       <c r="O14">
-        <v>0.02404047019001854</v>
+        <v>0.103945988087918</v>
       </c>
       <c r="P14">
-        <v>0.01736464267462396</v>
+        <v>0.08162724187161399</v>
       </c>
       <c r="Q14">
-        <v>1.46137202463525</v>
+        <v>0.4919482440216667</v>
       </c>
       <c r="R14">
-        <v>5.845488098541</v>
+        <v>2.95168946413</v>
       </c>
       <c r="S14">
-        <v>0.0003296598933817038</v>
+        <v>0.0001499781491787365</v>
       </c>
       <c r="T14">
-        <v>0.0002012729410644986</v>
+        <v>0.0001728543880740152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H15">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I15">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J15">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.78661766666667</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N15">
         <v>104.359853</v>
       </c>
       <c r="O15">
-        <v>0.6991284747687939</v>
+        <v>0.54304673275741</v>
       </c>
       <c r="P15">
-        <v>0.7574799526834212</v>
+        <v>0.6396698105109139</v>
       </c>
       <c r="Q15">
-        <v>42.4986194769695</v>
+        <v>2.570093290909444</v>
       </c>
       <c r="R15">
-        <v>254.991716861817</v>
+        <v>23.130839618185</v>
       </c>
       <c r="S15">
-        <v>0.009586943043571815</v>
+        <v>0.0007835333079678799</v>
       </c>
       <c r="T15">
-        <v>0.008779922554743328</v>
+        <v>0.001354569027815407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H16">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I16">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J16">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.07777066666666667</v>
+        <v>0.1155526666666667</v>
       </c>
       <c r="N16">
-        <v>0.233312</v>
+        <v>0.346658</v>
       </c>
       <c r="O16">
-        <v>0.00156300586879187</v>
+        <v>0.001803868910051246</v>
       </c>
       <c r="P16">
-        <v>0.001693459291481316</v>
+        <v>0.002124827228072968</v>
       </c>
       <c r="Q16">
-        <v>0.095011995728</v>
+        <v>0.008537223601111112</v>
       </c>
       <c r="R16">
-        <v>0.5700719743679999</v>
+        <v>0.07683501241</v>
       </c>
       <c r="S16">
-        <v>2.143303953659102E-05</v>
+        <v>2.602706708235104E-06</v>
       </c>
       <c r="T16">
-        <v>1.962882499549204E-05</v>
+        <v>4.499548212706216E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H17">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I17">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J17">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.302739</v>
+        <v>22.3696805</v>
       </c>
       <c r="N17">
-        <v>20.605478</v>
+        <v>44.739361</v>
       </c>
       <c r="O17">
-        <v>0.2070606079622678</v>
+        <v>0.3492084808231422</v>
       </c>
       <c r="P17">
-        <v>0.1495616949600271</v>
+        <v>0.2742282376849398</v>
       </c>
       <c r="Q17">
-        <v>12.5867995712355</v>
+        <v>1.652709278140833</v>
       </c>
       <c r="R17">
-        <v>50.34719828494199</v>
+        <v>9.916255668845</v>
       </c>
       <c r="S17">
-        <v>0.002839361185736415</v>
+        <v>0.0005038543824036312</v>
       </c>
       <c r="T17">
-        <v>0.001733564161339585</v>
+        <v>0.0005807075325686071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H18">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I18">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J18">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>3.325815666666667</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N18">
-        <v>9.977447000000002</v>
+        <v>0.072434</v>
       </c>
       <c r="O18">
-        <v>0.066841003534151</v>
+        <v>0.0003769174247548072</v>
       </c>
       <c r="P18">
-        <v>0.0724197654960413</v>
+        <v>0.0004439814902244788</v>
       </c>
       <c r="Q18">
-        <v>4.0631307079805</v>
+        <v>0.001783848214444444</v>
       </c>
       <c r="R18">
-        <v>24.378784247883</v>
+        <v>0.01605463393</v>
       </c>
       <c r="S18">
-        <v>0.0009165710123150181</v>
+        <v>5.438341469237737E-07</v>
       </c>
       <c r="T18">
-        <v>0.0008394148653511055</v>
+        <v>9.401781445665816E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H19">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I19">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J19">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06798999999999999</v>
+        <v>0.103647</v>
       </c>
       <c r="N19">
-        <v>0.20397</v>
+        <v>0.310941</v>
       </c>
       <c r="O19">
-        <v>0.001366437675976708</v>
+        <v>0.0016180119967237</v>
       </c>
       <c r="P19">
-        <v>0.001480484894405106</v>
+        <v>0.001905901214234885</v>
       </c>
       <c r="Q19">
-        <v>0.08306300905499998</v>
+        <v>0.007657613105</v>
       </c>
       <c r="R19">
-        <v>0.4983780543299999</v>
+        <v>0.06891851794499999</v>
       </c>
       <c r="S19">
-        <v>1.873755775218793E-05</v>
+        <v>2.33454363252927E-06</v>
       </c>
       <c r="T19">
-        <v>1.716024651252619E-05</v>
+        <v>4.035949035669402E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H20">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I20">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J20">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1961845</v>
+        <v>6.658597</v>
       </c>
       <c r="N20">
-        <v>2.392369</v>
+        <v>13.317194</v>
       </c>
       <c r="O20">
-        <v>0.02404047019001854</v>
+        <v>0.103945988087918</v>
       </c>
       <c r="P20">
-        <v>0.01736464267462396</v>
+        <v>0.08162724187161399</v>
       </c>
       <c r="Q20">
-        <v>37.948106363874</v>
+        <v>7.933738301291</v>
       </c>
       <c r="R20">
-        <v>227.688638183244</v>
+        <v>31.734953205164</v>
       </c>
       <c r="S20">
-        <v>0.008560427110320986</v>
+        <v>0.002418724735693276</v>
       </c>
       <c r="T20">
-        <v>0.007839817835836553</v>
+        <v>0.001858435985051351</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H21">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I21">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J21">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.78661766666667</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N21">
         <v>104.359853</v>
       </c>
       <c r="O21">
-        <v>0.6991284747687939</v>
+        <v>0.54304673275741</v>
       </c>
       <c r="P21">
-        <v>0.7574799526834212</v>
+        <v>0.6396698105109139</v>
       </c>
       <c r="Q21">
-        <v>1103.580816549692</v>
+        <v>41.44835930968633</v>
       </c>
       <c r="R21">
-        <v>9932.227348947232</v>
+        <v>248.690155858118</v>
       </c>
       <c r="S21">
-        <v>0.2489484732080246</v>
+        <v>0.01263618336137047</v>
       </c>
       <c r="T21">
-        <v>0.3419883123776812</v>
+        <v>0.01456358645896944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H22">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I22">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J22">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.07777066666666667</v>
+        <v>0.1155526666666667</v>
       </c>
       <c r="N22">
-        <v>0.233312</v>
+        <v>0.346658</v>
       </c>
       <c r="O22">
-        <v>0.00156300586879187</v>
+        <v>0.001803868910051246</v>
       </c>
       <c r="P22">
-        <v>0.001693459291481316</v>
+        <v>0.002124827228072968</v>
       </c>
       <c r="Q22">
-        <v>2.467219338368</v>
+        <v>0.1376813489913334</v>
       </c>
       <c r="R22">
-        <v>22.204974045312</v>
+        <v>0.8260880939480001</v>
       </c>
       <c r="S22">
-        <v>0.000556561402794527</v>
+        <v>4.19743217891076E-05</v>
       </c>
       <c r="T22">
-        <v>0.0007645658253031609</v>
+        <v>4.837668518652887E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H23">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I23">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J23">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.302739</v>
+        <v>22.3696805</v>
       </c>
       <c r="N23">
-        <v>20.605478</v>
+        <v>44.739361</v>
       </c>
       <c r="O23">
-        <v>0.2070606079622678</v>
+        <v>0.3492084808231422</v>
       </c>
       <c r="P23">
-        <v>0.1495616949600271</v>
+        <v>0.2742282376849398</v>
       </c>
       <c r="Q23">
-        <v>326.847100435788</v>
+        <v>26.6535414247915</v>
       </c>
       <c r="R23">
-        <v>1961.082602614728</v>
+        <v>106.614165699166</v>
       </c>
       <c r="S23">
-        <v>0.07373097230917246</v>
+        <v>0.008125750748229021</v>
       </c>
       <c r="T23">
-        <v>0.06752436348253037</v>
+        <v>0.006243450266670516</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H24">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I24">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J24">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>3.325815666666667</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N24">
-        <v>9.977447000000002</v>
+        <v>0.072434</v>
       </c>
       <c r="O24">
-        <v>0.066841003534151</v>
+        <v>0.0003769174247548072</v>
       </c>
       <c r="P24">
-        <v>0.0724197654960413</v>
+        <v>0.0004439814902244788</v>
       </c>
       <c r="Q24">
-        <v>105.509147347508</v>
+        <v>0.02876844276733333</v>
       </c>
       <c r="R24">
-        <v>949.5823261275723</v>
+        <v>0.172610656604</v>
       </c>
       <c r="S24">
-        <v>0.02380101280100486</v>
+        <v>8.770511641076276E-06</v>
       </c>
       <c r="T24">
-        <v>0.03269619650928177</v>
+        <v>1.010828198051403E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.191503</v>
+      </c>
+      <c r="H25">
+        <v>2.383006</v>
+      </c>
+      <c r="I25">
+        <v>0.02326905328609226</v>
+      </c>
+      <c r="J25">
+        <v>0.02276734999786419</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>31.72429200000001</v>
-      </c>
-      <c r="H25">
-        <v>95.17287600000002</v>
-      </c>
-      <c r="I25">
-        <v>0.3560840134430991</v>
-      </c>
-      <c r="J25">
-        <v>0.4514816678199414</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.06798999999999999</v>
+        <v>0.103647</v>
       </c>
       <c r="N25">
-        <v>0.20397</v>
+        <v>0.310941</v>
       </c>
       <c r="O25">
-        <v>0.001366437675976708</v>
+        <v>0.0016180119967237</v>
       </c>
       <c r="P25">
-        <v>0.001480484894405106</v>
+        <v>0.001905901214234885</v>
       </c>
       <c r="Q25">
-        <v>2.15693461308</v>
+        <v>0.123495711441</v>
       </c>
       <c r="R25">
-        <v>19.41241151772</v>
+        <v>0.740974268646</v>
       </c>
       <c r="S25">
-        <v>0.0004865666117816472</v>
+        <v>3.764960736930031E-05</v>
       </c>
       <c r="T25">
-        <v>0.0006684117893082471</v>
+        <v>4.339232000583998E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H26">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I26">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J26">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.1961845</v>
+        <v>6.658597</v>
       </c>
       <c r="N26">
-        <v>2.392369</v>
+        <v>13.317194</v>
       </c>
       <c r="O26">
-        <v>0.02404047019001854</v>
+        <v>0.103945988087918</v>
       </c>
       <c r="P26">
-        <v>0.01736464267462396</v>
+        <v>0.08162724187161399</v>
       </c>
       <c r="Q26">
-        <v>0.06026537002266667</v>
+        <v>8.544220669574333</v>
       </c>
       <c r="R26">
-        <v>0.361592220136</v>
+        <v>51.265324017446</v>
       </c>
       <c r="S26">
-        <v>1.359481030248949E-05</v>
+        <v>0.00260483987445847</v>
       </c>
       <c r="T26">
-        <v>1.245041104967428E-05</v>
+        <v>0.003002157347559466</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H27">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I27">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J27">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.78661766666667</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N27">
         <v>104.359853</v>
       </c>
       <c r="O27">
-        <v>0.6991284747687939</v>
+        <v>0.54304673275741</v>
       </c>
       <c r="P27">
-        <v>0.7574799526834212</v>
+        <v>0.6396698105109139</v>
       </c>
       <c r="Q27">
-        <v>1.752596180203556</v>
+        <v>44.63771237275855</v>
       </c>
       <c r="R27">
-        <v>15.773365621832</v>
+        <v>401.7394113548269</v>
       </c>
       <c r="S27">
-        <v>0.0003953549542261775</v>
+        <v>0.01360850773754212</v>
       </c>
       <c r="T27">
-        <v>0.0005431114794304655</v>
+        <v>0.02352632990659862</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H28">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I28">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J28">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.07777066666666667</v>
+        <v>0.1155526666666667</v>
       </c>
       <c r="N28">
-        <v>0.233312</v>
+        <v>0.346658</v>
       </c>
       <c r="O28">
-        <v>0.00156300586879187</v>
+        <v>0.001803868910051246</v>
       </c>
       <c r="P28">
-        <v>0.001693459291481316</v>
+        <v>0.002124827228072968</v>
       </c>
       <c r="Q28">
-        <v>0.003918189880888889</v>
+        <v>0.1482756026468889</v>
       </c>
       <c r="R28">
-        <v>0.035263708928</v>
+        <v>1.334480423822</v>
       </c>
       <c r="S28">
-        <v>8.838749042739443E-07</v>
+        <v>4.520414641903413E-05</v>
       </c>
       <c r="T28">
-        <v>1.214206630675119E-06</v>
+        <v>7.814873477027286E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.05038133333333333</v>
+        <v>1.283186333333333</v>
       </c>
       <c r="H29">
-        <v>0.151144</v>
+        <v>3.849559</v>
       </c>
       <c r="I29">
-        <v>0.0005654968557201504</v>
+        <v>0.02505955181507614</v>
       </c>
       <c r="J29">
-        <v>0.0007169978261556076</v>
+        <v>0.0367788654709338</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.302739</v>
+        <v>22.3696805</v>
       </c>
       <c r="N29">
-        <v>20.605478</v>
+        <v>44.739361</v>
       </c>
       <c r="O29">
-        <v>0.2070606079622678</v>
+        <v>0.3492084808231422</v>
       </c>
       <c r="P29">
-        <v>0.1495616949600271</v>
+        <v>0.2742282376849398</v>
       </c>
       <c r="Q29">
-        <v>0.5190657278053333</v>
+        <v>28.70446829863317</v>
       </c>
       <c r="R29">
-        <v>3.114394366832</v>
+        <v>172.226809791799</v>
       </c>
       <c r="S29">
-        <v>0.0001170921227461652</v>
+        <v>0.008751008019451556</v>
       </c>
       <c r="T29">
-        <v>0.0001072354101624876</v>
+        <v>0.01008580346214566</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.849559</v>
+      </c>
+      <c r="I30">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J30">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G30">
-        <v>0.05038133333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.151144</v>
-      </c>
-      <c r="I30">
-        <v>0.0005654968557201504</v>
-      </c>
-      <c r="J30">
-        <v>0.0007169978261556076</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <v>3.325815666666667</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N30">
-        <v>9.977447000000002</v>
+        <v>0.072434</v>
       </c>
       <c r="O30">
-        <v>0.066841003534151</v>
+        <v>0.0003769174247548072</v>
       </c>
       <c r="P30">
-        <v>0.0724197654960413</v>
+        <v>0.0004439814902244788</v>
       </c>
       <c r="Q30">
-        <v>0.1675590277075556</v>
+        <v>0.03098210628955555</v>
       </c>
       <c r="R30">
-        <v>1.508031249368</v>
+        <v>0.278838956606</v>
       </c>
       <c r="S30">
-        <v>3.779837733174185E-05</v>
+        <v>9.445381735648154E-06</v>
       </c>
       <c r="T30">
-        <v>5.192481443136049E-05</v>
+        <v>1.632913550055082E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.849559</v>
+      </c>
+      <c r="I31">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J31">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.103647</v>
+      </c>
+      <c r="N31">
+        <v>0.310941</v>
+      </c>
+      <c r="O31">
+        <v>0.0016180119967237</v>
+      </c>
+      <c r="P31">
+        <v>0.001905901214234885</v>
+      </c>
+      <c r="Q31">
+        <v>0.132998413891</v>
+      </c>
+      <c r="R31">
+        <v>1.196985725019</v>
+      </c>
+      <c r="S31">
+        <v>4.054665546931238E-05</v>
+      </c>
+      <c r="T31">
+        <v>7.009688435923423E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.172363</v>
+      </c>
+      <c r="I32">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J32">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.658597</v>
+      </c>
+      <c r="N32">
+        <v>13.317194</v>
+      </c>
+      <c r="O32">
+        <v>0.103945988087918</v>
+      </c>
+      <c r="P32">
+        <v>0.08162724187161399</v>
+      </c>
+      <c r="Q32">
+        <v>0.3825652515703333</v>
+      </c>
+      <c r="R32">
+        <v>2.295391509422</v>
+      </c>
+      <c r="S32">
+        <v>0.0001166310258606986</v>
+      </c>
+      <c r="T32">
+        <v>0.0001344208120715625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.172363</v>
+      </c>
+      <c r="I33">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J33">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>34.78661766666666</v>
+      </c>
+      <c r="N33">
+        <v>104.359853</v>
+      </c>
+      <c r="O33">
+        <v>0.54304673275741</v>
+      </c>
+      <c r="P33">
+        <v>0.6396698105109139</v>
+      </c>
+      <c r="Q33">
+        <v>1.998641926959889</v>
+      </c>
+      <c r="R33">
+        <v>17.987777342639</v>
+      </c>
+      <c r="S33">
+        <v>0.000609317383930464</v>
+      </c>
+      <c r="T33">
+        <v>0.001053385284312062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.172363</v>
+      </c>
+      <c r="I34">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J34">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1155526666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.346658</v>
+      </c>
+      <c r="O34">
+        <v>0.001803868910051246</v>
+      </c>
+      <c r="P34">
+        <v>0.002124827228072968</v>
+      </c>
+      <c r="Q34">
+        <v>0.006639001428222223</v>
+      </c>
+      <c r="R34">
+        <v>0.059751012854</v>
+      </c>
+      <c r="S34">
+        <v>2.02400386361762E-06</v>
+      </c>
+      <c r="T34">
+        <v>3.499089212870498E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.172363</v>
+      </c>
+      <c r="I35">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J35">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>22.3696805</v>
+      </c>
+      <c r="N35">
+        <v>44.739361</v>
+      </c>
+      <c r="O35">
+        <v>0.3492084808231422</v>
+      </c>
+      <c r="P35">
+        <v>0.2742282376849398</v>
+      </c>
+      <c r="Q35">
+        <v>1.285235080007167</v>
+      </c>
+      <c r="R35">
+        <v>7.711410480043</v>
+      </c>
+      <c r="S35">
+        <v>0.000391824101216978</v>
+      </c>
+      <c r="T35">
+        <v>0.0004515892189587983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G31">
-        <v>0.05038133333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.151144</v>
-      </c>
-      <c r="I31">
-        <v>0.0005654968557201504</v>
-      </c>
-      <c r="J31">
-        <v>0.0007169978261556076</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.06798999999999999</v>
-      </c>
-      <c r="N31">
-        <v>0.20397</v>
-      </c>
-      <c r="O31">
-        <v>0.001366437675976708</v>
-      </c>
-      <c r="P31">
-        <v>0.001480484894405106</v>
-      </c>
-      <c r="Q31">
-        <v>0.003425426853333333</v>
-      </c>
-      <c r="R31">
-        <v>0.03082884168</v>
-      </c>
-      <c r="S31">
-        <v>7.72716209302378E-07</v>
-      </c>
-      <c r="T31">
-        <v>1.061504450944675E-06</v>
+      <c r="G36">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.172363</v>
+      </c>
+      <c r="I36">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J36">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.02414466666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.072434</v>
+      </c>
+      <c r="O36">
+        <v>0.0003769174247548072</v>
+      </c>
+      <c r="P36">
+        <v>0.0004439814902244788</v>
+      </c>
+      <c r="Q36">
+        <v>0.001387215726888889</v>
+      </c>
+      <c r="R36">
+        <v>0.012484941542</v>
+      </c>
+      <c r="S36">
+        <v>4.229145032201151E-07</v>
+      </c>
+      <c r="T36">
+        <v>7.311327822956968E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.172363</v>
+      </c>
+      <c r="I37">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J37">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.103647</v>
+      </c>
+      <c r="N37">
+        <v>0.310941</v>
+      </c>
+      <c r="O37">
+        <v>0.0016180119967237</v>
+      </c>
+      <c r="P37">
+        <v>0.001905901214234885</v>
+      </c>
+      <c r="Q37">
+        <v>0.005954969286999999</v>
+      </c>
+      <c r="R37">
+        <v>0.053594723583</v>
+      </c>
+      <c r="S37">
+        <v>1.815465921332051E-06</v>
+      </c>
+      <c r="T37">
+        <v>3.138569711182681E-06</v>
       </c>
     </row>
   </sheetData>
